--- a/biology/Botanique/Castilleja_linariifolia/Castilleja_linariifolia.xlsx
+++ b/biology/Botanique/Castilleja_linariifolia/Castilleja_linariifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Castilleja linariifolia est une plante vivace que l’on trouve au centre et à l’ouest des États-Unis.
-Le genre Castilleja porte parfois le nom de « pinceau indien » dans la francophonie. Nommée aux États-Unis Wyoming Indian paintbrush (« pinceau indien du Wyoming »), Castilleja linariifolia est la fleur emblème de l'État du Wyoming depuis le 31 janvier 1917[2].
+Le genre Castilleja porte parfois le nom de « pinceau indien » dans la francophonie. Nommée aux États-Unis Wyoming Indian paintbrush (« pinceau indien du Wyoming »), Castilleja linariifolia est la fleur emblème de l'État du Wyoming depuis le 31 janvier 1917.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante atteint jusque 1 mètre de haut et possède des feuilles linéaires de 20 à 80 mm de long et possédant trois lobes[3]. Les fleurs ont un calice de couleurs rouge à jaune et un tube floral jaune-vert. Elles ont une forme de pointes et apparaissent de juin à septembre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante atteint jusque 1 mètre de haut et possède des feuilles linéaires de 20 à 80 mm de long et possédant trois lobes. Les fleurs ont un calice de couleurs rouge à jaune et un tube floral jaune-vert. Elles ont une forme de pointes et apparaissent de juin à septembre.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce apprécie les zones rocheuses et les plaines arides où elle est associée à une végétation composées de sagebrush, de pins à Pignons et de genévriers[3]. Elle est native en Arizona, Californie, Colorado, Idaho, Montana, Nevada, Nouveau-Mexique, Oregon, Utah et au Wyoming[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce apprécie les zones rocheuses et les plaines arides où elle est associée à une végétation composées de sagebrush, de pins à Pignons et de genévriers. Elle est native en Arizona, Californie, Colorado, Idaho, Montana, Nevada, Nouveau-Mexique, Oregon, Utah et au Wyoming.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Emblème d’état</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Castilleja linariifolia est la fleur emblème de l'État du Wyoming depuis le 31 janvier 1917[5].
-Lorsqu’il fallut choisir la fleur emblème de l’État du Wyoming, le docteur Grace Raymond Hebard de l’Université du Wyoming favorisa cette plante par rapport à ces rivales qu’étaient l’ancolie et la gentiane crinita[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castilleja linariifolia est la fleur emblème de l'État du Wyoming depuis le 31 janvier 1917.
+Lorsqu’il fallut choisir la fleur emblème de l’État du Wyoming, le docteur Grace Raymond Hebard de l’Université du Wyoming favorisa cette plante par rapport à ces rivales qu’étaient l’ancolie et la gentiane crinita.
 </t>
         </is>
       </c>
